--- a/data/Lehrforschung_Results_Malkusch_190326.xlsx
+++ b/data/Lehrforschung_Results_Malkusch_190326.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Habil\IKH\Lehrforschung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Habil\IKH\Lehrforschung\educational_research\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Lehrforschung_Results_Malkusch" sheetId="8" r:id="rId1"/>
@@ -118,87 +118,9 @@
     <t>av_1.7.4</t>
   </si>
   <si>
-    <t>frage_1.1</t>
-  </si>
-  <si>
-    <t>frage_1.2.1</t>
-  </si>
-  <si>
-    <t>frage_1.2.2</t>
-  </si>
-  <si>
-    <t>frage_1.2.3</t>
-  </si>
-  <si>
-    <t>frage_1.2.4</t>
-  </si>
-  <si>
-    <t>frage_1.3.1</t>
-  </si>
-  <si>
-    <t>frage_1.3.2</t>
-  </si>
-  <si>
-    <t>frage_1.3.3</t>
-  </si>
-  <si>
-    <t>frage_1.3.4</t>
-  </si>
-  <si>
-    <t>frage_1.5.1</t>
-  </si>
-  <si>
-    <t>frage_1.5.2</t>
-  </si>
-  <si>
-    <t>frage_1.5.3</t>
-  </si>
-  <si>
-    <t>frage_1.5.4</t>
-  </si>
-  <si>
-    <t>frage_1.6.1</t>
-  </si>
-  <si>
-    <t>frage_1.6.2</t>
-  </si>
-  <si>
-    <t>frage_1.6.3</t>
-  </si>
-  <si>
-    <t>frage_1.6.4</t>
-  </si>
-  <si>
-    <t>frage_1.7.1</t>
-  </si>
-  <si>
-    <t>frage_1.7.2</t>
-  </si>
-  <si>
-    <t>frage_1.7.3</t>
-  </si>
-  <si>
-    <t>frage_1.7.4</t>
-  </si>
-  <si>
-    <t>frage_1.8</t>
-  </si>
-  <si>
     <t>FALSE</t>
   </si>
   <si>
-    <t>frage_1.4.1</t>
-  </si>
-  <si>
-    <t>frage_1.4.2</t>
-  </si>
-  <si>
-    <t>frage_1.4.3</t>
-  </si>
-  <si>
-    <t>frage_1.4.4</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
@@ -242,6 +164,84 @@
   </si>
   <si>
     <t>0.2727273</t>
+  </si>
+  <si>
+    <t>Hypothese_1.1</t>
+  </si>
+  <si>
+    <t>Hypothese_1.2.1</t>
+  </si>
+  <si>
+    <t>Hypothese_1.2.2</t>
+  </si>
+  <si>
+    <t>Hypothese_1.2.3</t>
+  </si>
+  <si>
+    <t>Hypothese_1.2.4</t>
+  </si>
+  <si>
+    <t>Hypothese_1.3.1</t>
+  </si>
+  <si>
+    <t>Hypothese_1.3.2</t>
+  </si>
+  <si>
+    <t>Hypothese_1.3.3</t>
+  </si>
+  <si>
+    <t>Hypothese_1.3.4</t>
+  </si>
+  <si>
+    <t>Hypothese_1.4.1</t>
+  </si>
+  <si>
+    <t>Hypothese_1.4.2</t>
+  </si>
+  <si>
+    <t>Hypothese_1.4.3</t>
+  </si>
+  <si>
+    <t>Hypothese_1.4.4</t>
+  </si>
+  <si>
+    <t>Hypothese_1.5.1</t>
+  </si>
+  <si>
+    <t>Hypothese_1.5.2</t>
+  </si>
+  <si>
+    <t>Hypothese_1.5.3</t>
+  </si>
+  <si>
+    <t>Hypothese_1.5.4</t>
+  </si>
+  <si>
+    <t>Hypothese_1.6.1</t>
+  </si>
+  <si>
+    <t>Hypothese_1.6.2</t>
+  </si>
+  <si>
+    <t>Hypothese_1.6.3</t>
+  </si>
+  <si>
+    <t>Hypothese_1.6.4</t>
+  </si>
+  <si>
+    <t>Hypothese_1.7.1</t>
+  </si>
+  <si>
+    <t>Hypothese_1.7.2</t>
+  </si>
+  <si>
+    <t>Hypothese_1.7.3</t>
+  </si>
+  <si>
+    <t>Hypothese_1.7.4</t>
+  </si>
+  <si>
+    <t>Hypothese_1.8</t>
   </si>
 </sst>
 </file>
@@ -570,13 +570,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -584,82 +587,82 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="P1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="Q1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="R1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="T1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="U1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="V1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="W1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="X1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="Y1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="Z1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="AA1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -667,82 +670,82 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="U2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="W2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="X2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Z2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AA2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -750,82 +753,82 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="U3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="W3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="X3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Y3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="AA3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -833,82 +836,82 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="R4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="U4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="V4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="W4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="X4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AA4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -916,82 +919,82 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="R5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="U5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="V5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="W5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="X5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Z5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AA5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -999,82 +1002,82 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="U6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="V6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="W6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="X6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Y6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Z6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AA6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -1082,82 +1085,82 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="R7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="U7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="V7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="W7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="X7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Z7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AA7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -1165,82 +1168,82 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="O8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="V8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="W8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="X8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AA8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -1248,82 +1251,82 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="R9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="W9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="X9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Z9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AA9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -1331,82 +1334,82 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="Q10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="R10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="U10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="V10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="W10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="X10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Y10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Z10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AA10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -1414,82 +1417,82 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Q11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="R11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="U11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="V11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="W11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="X11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Y11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Z11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="AA11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -1497,82 +1500,82 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="N12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="P12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="Q12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="R12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="V12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="W12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="X12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="Z12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1612,10 +1615,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1623,10 +1626,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1634,10 +1637,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1645,10 +1648,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1656,10 +1659,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1667,10 +1670,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1678,10 +1681,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1689,10 +1692,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1700,10 +1703,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1711,10 +1714,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1722,10 +1725,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1771,19 +1774,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1791,19 +1794,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1811,19 +1814,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1831,19 +1834,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,19 +1854,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,19 +1874,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1891,19 +1894,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,19 +1914,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,19 +1934,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,19 +1954,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1971,19 +1974,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2032,22 +2035,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2055,22 +2058,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2078,22 +2081,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2101,22 +2104,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2124,22 +2127,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2147,22 +2150,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2170,22 +2173,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2193,22 +2196,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2216,22 +2219,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2239,22 +2242,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2262,22 +2265,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2323,22 +2326,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2346,22 +2349,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2369,22 +2372,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2392,22 +2395,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2415,22 +2418,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2438,22 +2441,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2461,22 +2464,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2484,22 +2487,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2507,22 +2510,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2530,22 +2533,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2553,22 +2556,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2617,22 +2620,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2640,22 +2643,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2663,22 +2666,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2686,22 +2689,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2709,22 +2712,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2732,22 +2735,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2755,22 +2758,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2778,22 +2781,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2801,22 +2804,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2824,22 +2827,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2847,22 +2850,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2911,22 +2914,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2934,22 +2937,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2957,22 +2960,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2980,22 +2983,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3003,22 +3006,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3026,22 +3029,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3049,22 +3052,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3072,22 +3075,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3095,22 +3098,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3118,22 +3121,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3141,22 +3144,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3205,22 +3208,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3228,22 +3231,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3251,22 +3254,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3274,22 +3277,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3297,22 +3300,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3320,22 +3323,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3343,22 +3346,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3366,22 +3369,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3389,22 +3392,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3412,22 +3415,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3435,22 +3438,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3462,7 +3465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -3470,52 +3473,52 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
